--- a/biology/Botanique/Pleioceras/Pleioceras.xlsx
+++ b/biology/Botanique/Pleioceras/Pleioceras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleioceras est un genre de plantes à fleurs de la famille des Apocynaceae.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (7 août 2020)[2], World Checklist of Selected Plant Families (WCSP)  (7 août 2020)[3] et The Plant List            (7 août 2020)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 août 2020), World Checklist of Selected Plant Families (WCSP)  (7 août 2020) et The Plant List            (7 août 2020) :
 Pleioceras afzelii (K.Schum.) Stapf (1902)
 Pleioceras barteri Baill. (1888)
 Pleioceras gilletii Stapf (1902)
 Pleioceras orientale Vollesen (1980)
 Pleioceras zenkeri Stapf (1902)
-Selon Tropicos                                           (7 août 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 août 2020) (Attention liste brute contenant possiblement des synonymes) :
 Pleioceras afzelii (K. Schum.) Stapf
 Pleioceras barteri Baill.
 Pleioceras gilletii Stapf
